--- a/Data_fields.xlsx
+++ b/Data_fields.xlsx
@@ -5140,7 +5140,7 @@
     <t>2.2.24</t>
   </si>
   <si>
-    <t xml:space="preserve">During the creation or update of the customer, underneath needs to be done/ provided:up
+    <t xml:space="preserve">During the creation or update of the customer, underneath needs to be done/ provided:upup
 - Check for duplicates: accept or reject duplicate
 - Check correctness, completeness based on validation rules. When error, message to be provided
 - Possibility to bypass the address validation
@@ -22964,29 +22964,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <eevw xmlns="c4d1ca88-3ec0-4f0c-ad9a-d54382160a4a" xsi:nil="true"/>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010018D3BC7EA8BF0E40BD9D0186E9FC6965" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bf8f012c59c242efde01ff38eb71412">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns3="c4d1ca88-3ec0-4f0c-ad9a-d54382160a4a" xmlns:ns4="84a3705d-f0a3-42b9-8e6a-6f4633039405" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2710e7519bdbb3c4b974a3d57a83485" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -23208,23 +23185,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <eevw xmlns="c4d1ca88-3ec0-4f0c-ad9a-d54382160a4a" xsi:nil="true"/>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e40374fb-a6cc-4854-989f-c1d94a7967ee" ContentTypeId="0x01" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B631870-821A-465C-AB46-D7F64B73DDBA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170D3196-B9E1-45EA-861B-5625528FD4E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="c4d1ca88-3ec0-4f0c-ad9a-d54382160a4a"/>
+    <ds:schemaRef ds:uri="84a3705d-f0a3-42b9-8e6a-6f4633039405"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B8A6A4-7EEC-46F6-B858-301183514A86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C67A5DD2-9556-47D6-978C-87B53C37C898}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -23242,22 +23246,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B8A6A4-7EEC-46F6-B858-301183514A86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170D3196-B9E1-45EA-861B-5625528FD4E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B631870-821A-465C-AB46-D7F64B73DDBA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="c4d1ca88-3ec0-4f0c-ad9a-d54382160a4a"/>
-    <ds:schemaRef ds:uri="84a3705d-f0a3-42b9-8e6a-6f4633039405"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>